--- a/Proyecto de grado IIND/1. Datos/5. Estadisticas_Descriptivas.xlsx
+++ b/Proyecto de grado IIND/1. Datos/5. Estadisticas_Descriptivas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\Proyecto-de-grado-IIND\Proyecto de grado IIND\1. Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF219B6-2B90-44ED-8627-E301E3E25CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CDC83-F5D5-4B87-8EB0-A98215D6B4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -526,7 +526,7 @@
   <autoFilter ref="A1:D110" xr:uid="{2F6F863B-C815-443C-B610-13F033C46D1E}">
     <filterColumn colId="0">
       <filters>
-        <filter val="pm10"/>
+        <filter val="no2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -872,7 +872,7 @@
   <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D105" sqref="A1:D105"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>153.1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>11.183</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1.3672</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>17.9344</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0.78280000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>12.763</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0.74192999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>10.262</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0.49640000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>2.0590000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>6.3773600000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1869,8 +1869,7 @@
         <v>74</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18.579000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1918,7 +1917,7 @@
         <v>1.9332</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>6.44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>81</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D110" si="2">IFERROR(_xlfn.NUMBERVALUE(MID(B66,FIND(":",B66)+1,LEN(B66)*FIND(":",B66)),"."),"")</f>
+        <f t="shared" ref="D66:D88" si="2">IFERROR(_xlfn.NUMBERVALUE(MID(B66,FIND(":",B66)+1,LEN(B66)*FIND(":",B66)),"."),"")</f>
         <v>1.909</v>
       </c>
     </row>
@@ -2008,7 +2007,7 @@
         <v>5.3323999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>13.651</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>2.302</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>8.5172000000000008</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>1.2878000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>12.847</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>0.96816000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC713B-A20A-48AA-BDE5-14ACE492285B}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3097,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF78A9-90AA-461D-B3BA-DF90B674B1F6}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,7 +3295,7 @@
         <v>74</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>18.579000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto de grado IIND/1. Datos/5. Estadisticas_Descriptivas.xlsx
+++ b/Proyecto de grado IIND/1. Datos/5. Estadisticas_Descriptivas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\Proyecto-de-grado-IIND\Proyecto de grado IIND\1. Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CDC83-F5D5-4B87-8EB0-A98215D6B4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604068A2-A8F6-43B7-AE51-68A9B11CFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -31,28 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,11 +847,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34DE168-3E16-4373-8DD2-B1DD3B33286F}">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -882,7 +858,7 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,42 +871,8 @@
       <c r="D1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="str" cm="1">
-        <f t="array" ref="G1:Q1">TRANSPOSE(_xlfn.UNIQUE(A2:A110))</f>
-        <v xml:space="preserve">      o3</v>
-      </c>
-      <c r="H1" t="str">
-        <v xml:space="preserve">     no2</v>
-      </c>
-      <c r="I1" t="str">
-        <v xml:space="preserve">     pm25</v>
-      </c>
-      <c r="J1" t="str">
-        <v xml:space="preserve">      co</v>
-      </c>
-      <c r="K1" t="str">
-        <v xml:space="preserve">     so2</v>
-      </c>
-      <c r="L1" t="str">
-        <v xml:space="preserve">     pm10</v>
-      </c>
-      <c r="M1" t="str">
-        <v xml:space="preserve">      rh</v>
-      </c>
-      <c r="N1" t="str">
-        <v xml:space="preserve">     rain</v>
-      </c>
-      <c r="O1" t="str">
-        <v xml:space="preserve">   radsolar</v>
-      </c>
-      <c r="P1" t="str">
-        <v xml:space="preserve">      bc</v>
-      </c>
-      <c r="Q1" t="str">
-        <v xml:space="preserve">     co2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -944,12 +886,8 @@
         <f t="shared" ref="D2:D65" si="0">IFERROR(_xlfn.NUMBERVALUE(MID(B2,FIND(":",B2)+1,LEN(B2)*FIND(":",B2)),"."),"")</f>
         <v>11.015000000000001</v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2:F14">+_xlfn.SEQUENCE(13,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -963,15 +901,8 @@
         <f t="shared" si="0"/>
         <v>9.9600000000000009</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G14" si="1">+LARGE($D$2:$D$110,F3)</f>
-        <v>165.92599999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -985,15 +916,8 @@
         <f t="shared" si="0"/>
         <v>14.372999999999999</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>160.024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1007,15 +931,8 @@
         <f t="shared" si="0"/>
         <v>0.32650000000000001</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>159.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1029,15 +946,8 @@
         <f t="shared" si="0"/>
         <v>1.4965999999999999</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>153.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1051,15 +961,8 @@
         <f t="shared" si="0"/>
         <v>28.02</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>150.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1073,15 +976,8 @@
         <f t="shared" si="0"/>
         <v>68.66</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>145.63999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1095,15 +991,8 @@
         <f t="shared" si="0"/>
         <v>0.115343</v>
       </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>72.760000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1117,15 +1006,8 @@
         <f t="shared" si="0"/>
         <v>160.024</v>
       </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>70.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1139,15 +1021,8 @@
         <f t="shared" si="0"/>
         <v>13.071</v>
       </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>69.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1161,15 +1036,8 @@
         <f t="shared" si="0"/>
         <v>15.127000000000001</v>
       </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>68.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1183,15 +1051,12 @@
         <f t="shared" si="0"/>
         <v>14.266999999999999</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>68.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G13" t="e">
+        <f t="shared" ref="G3:G14" si="1">+LARGE($D$2:$D$110,F13)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1205,15 +1070,12 @@
         <f t="shared" si="0"/>
         <v>0.73709999999999998</v>
       </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
+      <c r="G14" t="e">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1090,7 @@
         <v>22.239000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2664,7 +2526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC713B-A20A-48AA-BDE5-14ACE492285B}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2883,7 +2747,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF78A9-90AA-461D-B3BA-DF90B674B1F6}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,13 +3041,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>15.95</v>
+        <v>18.579000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,13 +3055,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>15.127000000000001</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,13 +3069,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>13.597</v>
+        <v>15.127000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,13 +3083,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>13.195</v>
+        <v>13.597</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,13 +3097,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="D10">
-        <v>12.31</v>
+        <v>13.195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,13 +3111,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>12.085000000000001</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,13 +3125,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>10.375</v>
+        <v>12.085000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,13 +3139,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>9.9600000000000009</v>
+        <v>10.375</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,13 +3153,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>18.579000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto de grado IIND/1. Datos/5. Estadisticas_Descriptivas.xlsx
+++ b/Proyecto de grado IIND/1. Datos/5. Estadisticas_Descriptivas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\Proyecto-de-grado-IIND\Proyecto de grado IIND\1. Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604068A2-A8F6-43B7-AE51-68A9B11CFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC63D54-7637-4614-8839-929AC45DFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
     <sheet name="pm10" sheetId="5" r:id="rId2"/>
     <sheet name="pm25" sheetId="4" r:id="rId3"/>
-    <sheet name="no2" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId4"/>
+    <sheet name="no2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="147">
   <si>
     <t>Var1</t>
   </si>
@@ -445,13 +446,54 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Estacion</t>
+  </si>
+  <si>
+    <t>PM2.5</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>Fontibón</t>
+  </si>
+  <si>
+    <t>Min Ambiente</t>
+  </si>
+  <si>
+    <t>Puente Aranda</t>
+  </si>
+  <si>
+    <t>San Cristóbal</t>
+  </si>
+  <si>
+    <t>obbt</t>
+  </si>
+  <si>
+    <t>rf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -468,7 +510,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -476,15 +518,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,6 +707,1212 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PM2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Bolivia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carvajal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ferias</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fontibón</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Guaymaral</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Min Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Puente Aranda</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Suba</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Tunal</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Usaquen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15.467000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.191000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.372999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.858000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.664199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AFD-4A57-9309-7824FBF1C2C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PM10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Bolivia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carvajal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ferias</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fontibón</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Guaymaral</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Min Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Puente Aranda</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Suba</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Tunal</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Usaquen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>34.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.097000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AFD-4A57-9309-7824FBF1C2C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Bolivia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carvajal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ferias</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fontibón</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Guaymaral</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Min Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Puente Aranda</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Suba</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Tunal</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Usaquen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>34.928519999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.8066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.939959999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.724800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.261600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.438759999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.900799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.142800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.719799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.562359999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.504999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AFD-4A57-9309-7824FBF1C2C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1820145103"/>
+        <c:axId val="1820144271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1820145103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1820144271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1820144271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1820145103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351D7081-2165-4480-9BA0-AD74464B840F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,7 +1940,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C1EF6CC-9CC3-4CCC-AF27-1926A220A2FE}" name="Tabla4" displayName="Tabla4" ref="A1:D14" totalsRowShown="0">
   <autoFilter ref="A1:D14" xr:uid="{7C1EF6CC-9CC3-4CCC-AF27-1926A220A2FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
-    <sortCondition descending="1" ref="D1:D14"/>
+    <sortCondition ref="C1:C14"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A1C33588-965D-45FD-941E-D02748C0AF02}" name="Var1"/>
@@ -540,7 +1956,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5603E79-C9D9-44DF-B1B3-751E3135F2A9}" name="Tabla2" displayName="Tabla2" ref="A1:D14" totalsRowShown="0">
   <autoFilter ref="A1:D14" xr:uid="{B5603E79-C9D9-44DF-B1B3-751E3135F2A9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
-    <sortCondition descending="1" ref="D1:D14"/>
+    <sortCondition ref="C1:C14"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4D145584-CC5C-43FF-8733-A572435AA7D8}" name="Var1"/>
@@ -556,7 +1972,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39EEDFA3-0BB3-4A9A-BF5E-5AECE7142679}" name="Tabla3" displayName="Tabla3" ref="A1:D14" totalsRowShown="0">
   <autoFilter ref="A1:D14" xr:uid="{39EEDFA3-0BB3-4A9A-BF5E-5AECE7142679}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
-    <sortCondition descending="1" ref="D1:D14"/>
+    <sortCondition ref="C1:C14"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0F7721C1-B7D8-489C-80FB-79DAE3097347}" name="Var1"/>
@@ -1052,7 +2468,7 @@
         <v>14.266999999999999</v>
       </c>
       <c r="G13" t="e">
-        <f t="shared" ref="G3:G14" si="1">+LARGE($D$2:$D$110,F13)</f>
+        <f t="shared" ref="G13:G14" si="1">+LARGE($D$2:$D$110,F13)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -2526,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AC713B-A20A-48AA-BDE5-14ACE492285B}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,13 +3973,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>70.86</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,13 +3987,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>45.68</v>
+        <v>70.86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,13 +4001,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="D4">
-        <v>37.106999999999999</v>
+        <v>24.131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,13 +4015,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>35.317999999999998</v>
+        <v>25.305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,13 +4029,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>34.83</v>
+        <v>35.317999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,13 +4043,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>33.39</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2641,13 +4057,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>31.03</v>
+        <v>45.68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,13 +4071,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>28.02</v>
+        <v>22.239000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,13 +4085,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>25.305</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,13 +4099,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>24.131</v>
+        <v>23.158000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,13 +4113,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>23.158000000000001</v>
+        <v>33.39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,13 +4127,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>22.239000000000001</v>
+        <v>37.106999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,7 +4163,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,13 +4187,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>34.65</v>
+        <v>15.467000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,13 +4201,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>21.3</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,13 +4215,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>14.191000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,13 +4229,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>17.625</v>
+        <v>15.007999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,13 +4243,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>16.73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,13 +4257,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>15.467000000000001</v>
+        <v>14.372999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,13 +4271,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>15.154</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,13 +4285,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>15.007999999999999</v>
+        <v>14.266999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,13 +4299,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>14.372999999999999</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,13 +4313,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>14.266999999999999</v>
+        <v>12.858000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,13 +4327,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>14.191000000000001</v>
+        <v>15.154</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,13 +4341,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>12.858000000000001</v>
+        <v>17.625</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,11 +4373,273 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479CE74-3E67-4D0E-8AC9-EF3E3C9EF997}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15.467000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>34.83</v>
+      </c>
+      <c r="D2" s="6">
+        <v>34.928519999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34.65</v>
+      </c>
+      <c r="C3" s="1">
+        <v>70.86</v>
+      </c>
+      <c r="D3" s="6">
+        <v>46.059999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14.191000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24.131</v>
+      </c>
+      <c r="D4" s="6">
+        <v>24.8066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15.007999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>25.305</v>
+      </c>
+      <c r="D5" s="6">
+        <v>29.985999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35.317999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>35.939959999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14.372999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28.02</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18.724800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45.68</v>
+      </c>
+      <c r="D8" s="6">
+        <v>37.261600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14.266999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22.239000000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>28.438759999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16.73</v>
+      </c>
+      <c r="C10" s="1">
+        <v>31.03</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37.900799999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12.858000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>23.158000000000001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>23.142800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15.154</v>
+      </c>
+      <c r="C12" s="1">
+        <v>33.39</v>
+      </c>
+      <c r="D12" s="6">
+        <v>22.719799999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17.625</v>
+      </c>
+      <c r="C13" s="1">
+        <v>37.106999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>25.562359999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8">
+        <v>11.664199999999999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>22.097000000000001</v>
+      </c>
+      <c r="D14" s="9">
+        <v>19.504999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF78A9-90AA-461D-B3BA-DF90B674B1F6}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2985,13 +4663,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>24.5</v>
+        <v>18.579000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2999,13 +4677,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>20.16</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,13 +4691,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D4">
-        <v>19.82</v>
+        <v>13.195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3027,13 +4705,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>19.117000000000001</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,13 +4719,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>18.579000000000001</v>
+        <v>19.117000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,13 +4733,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>15.95</v>
+        <v>9.9600000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3069,13 +4747,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>15.127000000000001</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,13 +4761,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>13.597</v>
+        <v>15.127000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3097,13 +4775,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>13.195</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3139,13 +4817,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>10.375</v>
+        <v>13.597</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3153,13 +4831,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>9.9600000000000009</v>
+        <v>10.375</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto de grado IIND/1. Datos/5. Estadisticas_Descriptivas.xlsx
+++ b/Proyecto de grado IIND/1. Datos/5. Estadisticas_Descriptivas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\Proyecto-de-grado-IIND\Proyecto de grado IIND\1. Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC63D54-7637-4614-8839-929AC45DFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04362B9C-D69A-430F-947C-664DC1F25A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="148">
   <si>
     <t>Var1</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>rf</t>
+  </si>
+  <si>
+    <t>ws</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -501,16 +504,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -534,123 +556,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -658,38 +569,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -723,36 +626,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -765,7 +638,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$B$1</c:f>
+              <c:f>Hoja2!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -786,7 +659,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$2:$A$14</c:f>
+              <c:f>Hoja2!$B$3:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -833,7 +706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$2:$B$14</c:f>
+              <c:f>Hoja2!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -890,7 +763,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$C$1</c:f>
+              <c:f>Hoja2!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -911,7 +784,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$2:$A$14</c:f>
+              <c:f>Hoja2!$B$3:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -958,7 +831,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$2:$C$14</c:f>
+              <c:f>Hoja2!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1015,7 +888,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$D$1</c:f>
+              <c:f>Hoja2!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1036,7 +909,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$2:$A$14</c:f>
+              <c:f>Hoja2!$B$3:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1083,7 +956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$D$2:$D$14</c:f>
+              <c:f>Hoja2!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1878,16 +1751,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4374,226 +4247,308 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479CE74-3E67-4D0E-8AC9-EF3E3C9EF997}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="2">
         <v>15.467000000000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="2">
         <v>34.83</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E3" s="2">
         <v>34.928519999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="2">
         <v>34.65</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="2">
         <v>70.86</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E4" s="2">
         <v>46.059999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4">
+        <v>1.9715360608781687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="2">
         <v>14.191000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="2">
         <v>24.131</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E5" s="2">
         <v>24.8066</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5">
+        <v>1.347904331828083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="2">
         <v>15.007999999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="2">
         <v>25.305</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E6" s="2">
         <v>29.985999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6">
+        <v>1.7975607931163398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="2">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="2">
         <v>35.317999999999998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E7" s="2">
         <v>35.939959999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7">
+        <v>2.3714640379700591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="2">
         <v>14.372999999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="2">
         <v>28.02</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E8" s="2">
         <v>18.724800000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C9" s="2">
         <v>21.3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="2">
         <v>45.68</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E9" s="2">
         <v>37.261600000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9">
+        <v>1.9600693998200682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C10" s="2">
         <v>14.266999999999999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="2">
         <v>22.239000000000001</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E10" s="2">
         <v>28.438759999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C11" s="2">
         <v>16.73</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D11" s="2">
         <v>31.03</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E11" s="2">
         <v>37.900799999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11">
+        <v>1.7780022353769251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C12" s="2">
         <v>12.858000000000001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D12" s="2">
         <v>23.158000000000001</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E12" s="2">
         <v>23.142800000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12">
+        <v>1.3951928641949602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C13" s="2">
         <v>15.154</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D13" s="2">
         <v>33.39</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E13" s="2">
         <v>22.719799999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13">
+        <v>1.4275863246695757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C14" s="2">
         <v>17.625</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D14" s="2">
         <v>37.106999999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E14" s="2">
         <v>25.562359999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14">
+        <v>1.2125263372528128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8">
+      <c r="C15" s="2">
         <v>11.664199999999999</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D15" s="2">
         <v>22.097000000000001</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E15" s="2">
         <v>19.504999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="11" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15">
+        <v>1.2941106009183674</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="L19" s="7" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B14">
+  <conditionalFormatting sqref="C3:C15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4605,7 +4560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
+  <conditionalFormatting sqref="E3:F15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4617,7 +4572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="G4:G15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
